--- a/biology/Zoologie/Haplothrips_setiger/Haplothrips_setiger.xlsx
+++ b/biology/Zoologie/Haplothrips_setiger/Haplothrips_setiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplothrips setiger est une espèce d'insectes thysanoptères de la famille des Phlaeothripidae, sous-famille des Phlaeothripinae, originaire d'Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Haplothrips setiger a été initialement décrite en 1921 par l'entomologiste autrichien Hermann Priesner (d) (1891-1974) comme étant une variété d’Haplothrips trifolii[2] sous le taxon Haplothrips trifolii var setiger[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Haplothrips setiger a été initialement décrite en 1921 par l'entomologiste autrichien Hermann Priesner (d) (1891-1974) comme étant une variété d’Haplothrips trifolii sous le taxon Haplothrips trifolii var setiger.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon EUNIS[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon EUNIS :
 Haplothrips kraussei Priesner, 1928
 Haplothrips plumociliatus Maltbaek, 1931
 Haplothrips sedicola Bagnall, 1933
@@ -579,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Dr H Priesner, « HAPLOTHRIPS ,STUDIEN », Treubia, Jakarta, Inconnu, vol. 2, no 1,‎ 1921, p. 1-20 (ISSN 0082-6340, OCLC 1716369, lire en ligne)</t>
         </is>
